--- a/_SCN/SCN Succession Transitions.xlsx
+++ b/_SCN/SCN Succession Transitions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5100" yWindow="0" windowWidth="25360" windowHeight="18260" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17960" windowHeight="23300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="SCM" sheetId="1" r:id="rId1"/>
@@ -628,8 +628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A44" sqref="A43:A44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2824,7 +2824,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>

--- a/_SCN/SCN Succession Transitions.xlsx
+++ b/_SCN/SCN Succession Transitions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17960" windowHeight="23300" tabRatio="500"/>
+    <workbookView xWindow="21600" yWindow="0" windowWidth="17960" windowHeight="23300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="SCM" sheetId="1" r:id="rId1"/>
@@ -225,12 +225,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -282,7 +294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -295,6 +307,8 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -628,8 +642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1155,23 +1169,23 @@
       <c r="A36" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="12">
         <f>C17/$H$17</f>
         <v>0.13636363636363638</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="12">
         <f t="shared" ref="D36:H36" si="2">D17/$H$17</f>
         <v>0.20454545454545459</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="12">
         <f t="shared" si="2"/>
         <v>0.22727272727272729</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="12">
         <f t="shared" si="2"/>
         <v>0.22727272727272729</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="12">
         <f t="shared" si="2"/>
         <v>0.20454545454545459</v>
       </c>
@@ -1185,23 +1199,23 @@
       <c r="A37" t="s">
         <v>30</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="13">
         <f>C14/C17</f>
         <v>1</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="13">
         <f>D14/D17</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="13">
         <f>E14/E17</f>
         <v>0.60000000000000009</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="13">
         <f>F14/F17</f>
         <v>0.60000000000000009</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="13">
         <f t="shared" ref="G37" si="3">G14/G17</f>
         <v>0.66666666666666663</v>
       </c>
@@ -1215,23 +1229,23 @@
       <c r="A38" t="s">
         <v>31</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="13">
         <f>C15/C17</f>
         <v>0</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="13">
         <f>D15/D17</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="13">
         <f t="shared" ref="E38:G38" si="4">E15/E17</f>
         <v>0.4</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="13">
         <f>F15/F17</f>
         <v>0.4</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="13">
         <f t="shared" si="4"/>
         <v>0.33333333333333331</v>
       </c>

--- a/_SCN/SCN Succession Transitions.xlsx
+++ b/_SCN/SCN Succession Transitions.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23416"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="21600" yWindow="0" windowWidth="17960" windowHeight="23300" tabRatio="500"/>
+    <workbookView xWindow="19740" yWindow="0" windowWidth="19680" windowHeight="17420" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="SCM" sheetId="1" r:id="rId1"/>
+    <sheet name="#SCM" sheetId="1" r:id="rId1"/>
     <sheet name="SCX" sheetId="2" r:id="rId2"/>
     <sheet name="ASPW" sheetId="3" r:id="rId3"/>
+    <sheet name="#ASPE" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="63">
   <si>
     <t>Succession Type</t>
   </si>
@@ -198,6 +199,18 @@
   </si>
   <si>
     <t>Probability of transition if mixed to:</t>
+  </si>
+  <si>
+    <t>Mid Aspen</t>
+  </si>
+  <si>
+    <t>Late Conifer Aspen</t>
+  </si>
+  <si>
+    <t>100% stay MC</t>
+  </si>
+  <si>
+    <t>100% stay LC</t>
   </si>
 </sst>
 </file>
@@ -294,7 +307,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -309,6 +322,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -640,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q78"/>
+  <dimension ref="A1:Q55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -948,7 +962,7 @@
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:17">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -977,7 +991,7 @@
         <v>1.4666666666666665E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:17">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1002,869 +1016,596 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:17">
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:17">
       <c r="A20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-    </row>
-    <row r="21" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="C20" s="12">
+        <f>C17/$H$17</f>
+        <v>0.13636363636363638</v>
+      </c>
+      <c r="D20" s="12">
+        <f>D17/$H$17</f>
+        <v>0.20454545454545459</v>
+      </c>
+      <c r="E20" s="12">
+        <f>E17/$H$17</f>
+        <v>0.22727272727272729</v>
+      </c>
+      <c r="F20" s="12">
+        <f>F17/$H$17</f>
+        <v>0.22727272727272729</v>
+      </c>
+      <c r="G20" s="12">
+        <f>G17/$H$17</f>
+        <v>0.20454545454545459</v>
+      </c>
+      <c r="H20">
+        <f>H17/$H$17</f>
+        <v>1</v>
+      </c>
+      <c r="I20" s="9"/>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-    </row>
-    <row r="22" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="C21" s="13">
+        <f>C14/C17</f>
+        <v>1</v>
+      </c>
+      <c r="D21" s="13">
+        <f>D14/D17</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E21" s="13">
+        <f>E14/E17</f>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="F21" s="13">
+        <f>F14/F17</f>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="G21" s="13">
+        <f>G14/G17</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H21">
+        <f>H14/$H$14</f>
+        <v>1</v>
+      </c>
+      <c r="I21" s="9"/>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="8">
-        <f>1/D3*(1/3)</f>
-        <v>3.3333333333333332E-4</v>
-      </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="8">
-        <f>1/D3*(2/3)</f>
-        <v>6.6666666666666664E-4</v>
-      </c>
-      <c r="E23" s="8">
-        <v>1</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C22" s="13">
+        <f>C15/C17</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="13">
+        <f>D15/D17</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E22" s="13">
+        <f>E15/E17</f>
+        <v>0.4</v>
+      </c>
+      <c r="F22" s="13">
+        <f>F15/F17</f>
+        <v>0.4</v>
+      </c>
+      <c r="G22" s="13">
+        <f>G15/G17</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H22">
+        <f>H15/$H$15</f>
+        <v>1</v>
+      </c>
+      <c r="I22" s="9"/>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" t="s">
+      <c r="H23" s="8"/>
+      <c r="I23" s="9"/>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I24" s="9"/>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25">
+        <f>C21</f>
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <f>D21</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E25">
+        <f>E21</f>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="F25">
+        <f>F21</f>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="G25">
+        <f>G21</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I25" s="9"/>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="I26" s="9"/>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27" s="8">
+        <f>D22</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E27" s="8">
+        <f>E22</f>
+        <v>0.4</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8">
-        <v>1</v>
-      </c>
-      <c r="G24" s="8" t="e">
-        <f>1/G5</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8">
-        <f>1/G3</f>
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
-      <c r="A33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C33">
-        <f t="shared" ref="C33:G34" si="1">C11/C14</f>
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17">
-      <c r="A34" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D34">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E34">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F34">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="9"/>
-      <c r="Q35" s="9"/>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="A36" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C36" s="12">
-        <f>C17/$H$17</f>
-        <v>0.13636363636363638</v>
-      </c>
-      <c r="D36" s="12">
-        <f t="shared" ref="D36:H36" si="2">D17/$H$17</f>
-        <v>0.20454545454545459</v>
-      </c>
-      <c r="E36" s="12">
-        <f t="shared" si="2"/>
-        <v>0.22727272727272729</v>
-      </c>
-      <c r="F36" s="12">
-        <f t="shared" si="2"/>
-        <v>0.22727272727272729</v>
-      </c>
-      <c r="G36" s="12">
-        <f t="shared" si="2"/>
-        <v>0.20454545454545459</v>
-      </c>
-      <c r="H36">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I36" s="9"/>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="A37" t="s">
-        <v>30</v>
-      </c>
-      <c r="C37" s="13">
-        <f>C14/C17</f>
-        <v>1</v>
-      </c>
-      <c r="D37" s="13">
-        <f>D14/D17</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E37" s="13">
-        <f>E14/E17</f>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="F37" s="13">
-        <f>F14/F17</f>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="G37" s="13">
-        <f t="shared" ref="G37" si="3">G14/G17</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="H37">
-        <f>H14/$H$14</f>
-        <v>1</v>
-      </c>
-      <c r="I37" s="9"/>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="A38" t="s">
-        <v>31</v>
-      </c>
-      <c r="C38" s="13">
-        <f>C15/C17</f>
-        <v>0</v>
-      </c>
-      <c r="D38" s="13">
-        <f>D15/D17</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="E38" s="13">
-        <f t="shared" ref="E38:G38" si="4">E15/E17</f>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <f>F22</f>
         <v>0.4</v>
       </c>
-      <c r="F38" s="13">
-        <f>F15/F17</f>
-        <v>0.4</v>
-      </c>
-      <c r="G38" s="13">
-        <f t="shared" si="4"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="H38">
-        <f t="shared" ref="H38" si="5">H15/$H$15</f>
-        <v>1</v>
-      </c>
-      <c r="I38" s="9"/>
-    </row>
-    <row r="39" spans="1:17">
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="9"/>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="A40" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I40" s="9"/>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="A41" t="s">
-        <v>33</v>
-      </c>
-      <c r="C41">
-        <f>C37</f>
-        <v>1</v>
-      </c>
-      <c r="D41">
-        <f>D37</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E41">
-        <f>E37</f>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="F41">
-        <f>F37</f>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="G41">
-        <f>G37</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="I41" s="9"/>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="A42" t="s">
-        <v>2</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="D42">
-        <f>(D13+D22)/D17</f>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="I42" s="9"/>
-    </row>
-    <row r="43" spans="1:17">
-      <c r="A43" t="s">
-        <v>3</v>
-      </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-      <c r="D43">
-        <f>D23/D17</f>
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="E43" s="8">
-        <f>E38</f>
-        <v>0.4</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17">
-      <c r="A44" t="s">
-        <v>4</v>
-      </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <f>F38</f>
-        <v>0.4</v>
-      </c>
-      <c r="G44">
+      <c r="G28">
         <f>(G13+1/G3)/G17</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="Q44" s="6"/>
-    </row>
-    <row r="45" spans="1:17">
-      <c r="A45" t="s">
+      <c r="Q28" s="6"/>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" t="s">
         <v>5</v>
       </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="6"/>
-    </row>
-    <row r="46" spans="1:17">
-      <c r="A46" t="s">
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="6"/>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" t="s">
         <v>34</v>
       </c>
-      <c r="C46">
-        <f>SUM(C41:C45)</f>
-        <v>1</v>
-      </c>
-      <c r="D46">
-        <f>SUM(D41:D45)</f>
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="E46">
-        <f t="shared" ref="E46:F46" si="6">SUM(E41:E45)</f>
-        <v>1</v>
-      </c>
-      <c r="F46" s="10">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="G46">
-        <f>SUM(G41:G44)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17">
-      <c r="A48" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
-      <c r="A49" t="s">
-        <v>2</v>
-      </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
-      <c r="D49">
-        <f>D42/D38</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
-      <c r="A50" t="s">
-        <v>3</v>
-      </c>
-      <c r="C50">
-        <v>0</v>
-      </c>
-      <c r="D50">
-        <f>D43/D38</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E50" s="8">
-        <f>E43/E38</f>
-        <v>1</v>
-      </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10">
-      <c r="A51" t="s">
-        <v>4</v>
-      </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <f>F44/F38</f>
-        <v>1</v>
-      </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10">
-      <c r="A52" t="s">
-        <v>5</v>
-      </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-      <c r="G52">
-        <f>G44/G38</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10">
-      <c r="A53" t="s">
-        <v>34</v>
-      </c>
-      <c r="C53">
-        <f>SUM(C49:C52)</f>
-        <v>0</v>
-      </c>
-      <c r="D53">
-        <f t="shared" ref="D53:G53" si="7">SUM(D49:D52)</f>
-        <v>1</v>
-      </c>
-      <c r="E53">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="F53">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="G53">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10">
-      <c r="A55" s="1" t="s">
+      <c r="C30">
+        <f>SUM(C25:C29)</f>
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <f>SUM(D25:D29)</f>
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <f t="shared" ref="E30:F30" si="1">SUM(E25:E29)</f>
+        <v>1</v>
+      </c>
+      <c r="F30" s="10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <f>SUM(G25:G28)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C55">
+      <c r="C32">
         <v>0.05</v>
       </c>
-      <c r="D55">
+      <c r="D32">
         <v>0.1</v>
       </c>
-      <c r="E55">
+      <c r="E32">
         <v>0.1</v>
       </c>
-      <c r="F55">
+      <c r="F32">
         <v>0.3</v>
       </c>
-      <c r="G55">
+      <c r="G32">
         <v>0.45</v>
       </c>
-      <c r="H55">
-        <f>SUM(C55:G55)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10">
-      <c r="A57" s="1" t="s">
+      <c r="H32">
+        <f>SUM(C32:G32)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C57">
-        <f>C17*C55</f>
+      <c r="C34">
+        <f>C17*C32</f>
         <v>1E-4</v>
       </c>
-      <c r="D57">
-        <f>D17*D55</f>
+      <c r="D34">
+        <f>D17*D32</f>
         <v>3.0000000000000003E-4</v>
       </c>
-      <c r="E57">
-        <f>E17*E55</f>
+      <c r="E34">
+        <f>E17*E32</f>
         <v>3.3333333333333332E-4</v>
       </c>
-      <c r="F57">
-        <f>F17*F55</f>
+      <c r="F34">
+        <f>F17*F32</f>
         <v>9.999999999999998E-4</v>
       </c>
-      <c r="G57">
-        <f>G17*G55</f>
+      <c r="G34">
+        <f>G17*G32</f>
         <v>1.3500000000000001E-3</v>
       </c>
-      <c r="H57">
-        <f>SUM(C57:G57)</f>
+      <c r="H34">
+        <f>SUM(C34:G34)</f>
         <v>3.0833333333333333E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
-      <c r="A58" t="s">
+    <row r="35" spans="1:10">
+      <c r="A35" t="s">
         <v>38</v>
       </c>
-      <c r="C58">
-        <f>C14*C55</f>
+      <c r="C35">
+        <f>C14*C32</f>
         <v>1E-4</v>
       </c>
-      <c r="D58">
-        <f>D14*D55</f>
+      <c r="D35">
+        <f>D14*D32</f>
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="E58">
-        <f>E14*E55</f>
+      <c r="E35">
+        <f>E14*E32</f>
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="F58">
-        <f>F14*F55</f>
+      <c r="F35">
+        <f>F14*F32</f>
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="G58">
-        <f>G14*G55</f>
+      <c r="G35">
+        <f>G14*G32</f>
         <v>9.0000000000000008E-4</v>
       </c>
-      <c r="H58">
-        <f>SUM(C58:G58)</f>
+      <c r="H35">
+        <f>SUM(C35:G35)</f>
         <v>2E-3</v>
       </c>
-      <c r="J58">
+      <c r="J35">
         <f>0.2*0.02+0.1*1/75+0.25*1/315+0.4*0.001+0.05*1/60</f>
         <v>7.3603174603174611E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
-      <c r="A59" s="11" t="s">
+    <row r="36" spans="1:10">
+      <c r="A36" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C59">
-        <f>C15*C55</f>
-        <v>0</v>
-      </c>
-      <c r="D59">
-        <f>D15*D55</f>
+      <c r="C36">
+        <f>C15*C32</f>
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <f>D15*D32</f>
         <v>1E-4</v>
       </c>
-      <c r="E59">
-        <f>E15*E55</f>
+      <c r="E36">
+        <f>E15*E32</f>
         <v>1.3333333333333334E-4</v>
       </c>
-      <c r="F59">
-        <f>F15*F55</f>
+      <c r="F36">
+        <f>F15*F32</f>
         <v>3.9999999999999996E-4</v>
       </c>
-      <c r="G59">
-        <f>G15*G55</f>
+      <c r="G36">
+        <f>G15*G32</f>
         <v>4.5000000000000004E-4</v>
       </c>
-      <c r="H59">
-        <f>SUM(C59:G59)</f>
+      <c r="H36">
+        <f>SUM(C36:G36)</f>
         <v>1.0833333333333333E-3</v>
       </c>
-      <c r="J59">
+      <c r="J36">
         <f>H14/H17</f>
         <v>0.68181818181818188</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
-      <c r="A62" s="1" t="s">
+    <row r="39" spans="1:10">
+      <c r="A39" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B39" t="s">
         <v>41</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C39" t="s">
         <v>42</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D39" t="s">
         <v>43</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F39" t="s">
         <v>44</v>
       </c>
-      <c r="H62" t="s">
+      <c r="H39" t="s">
         <v>45</v>
       </c>
-      <c r="I62" t="s">
+      <c r="I39" t="s">
         <v>41</v>
       </c>
-      <c r="J62" t="s">
+      <c r="J39" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
-      <c r="A63" t="s">
+    <row r="40" spans="1:10">
+      <c r="A40" t="s">
         <v>47</v>
       </c>
-      <c r="B63" s="8">
-        <f>1/C63</f>
+      <c r="B40" s="8">
+        <f>1/C40</f>
         <v>149.92503748125938</v>
       </c>
-      <c r="C63">
+      <c r="C40">
         <v>6.6699999999999997E-3</v>
       </c>
-      <c r="D63">
-        <f>C63/C68</f>
+      <c r="D40">
+        <f>C40/C45</f>
         <v>0.11608075182735816</v>
       </c>
-      <c r="F63">
-        <f>F68*D63</f>
+      <c r="F40">
+        <f>F45*D40</f>
         <v>3.5791565146768768E-4</v>
       </c>
-      <c r="H63">
-        <f>H58</f>
+      <c r="H40">
+        <f>H35</f>
         <v>2E-3</v>
       </c>
-      <c r="I63">
-        <f>1/H63</f>
+      <c r="I40">
+        <f>1/H40</f>
         <v>500</v>
       </c>
-      <c r="J63">
-        <f>H63/H68</f>
+      <c r="J40">
+        <f>H40/H45</f>
         <v>0.64864864864864868</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
-      <c r="A64" t="s">
+    <row r="41" spans="1:10">
+      <c r="A41" t="s">
         <v>48</v>
       </c>
-      <c r="B64" s="8">
-        <f t="shared" ref="B64:B68" si="8">1/C64</f>
+      <c r="B41" s="8">
+        <f t="shared" ref="B41:B45" si="2">1/C41</f>
         <v>45.004500450045008</v>
       </c>
-      <c r="C64">
+      <c r="C41">
         <v>2.222E-2</v>
       </c>
-      <c r="D64">
-        <f>C64/C68</f>
+      <c r="D41">
+        <f>C41/C45</f>
         <v>0.38670379394361298</v>
       </c>
-      <c r="F64">
-        <f>F68*D64</f>
+      <c r="F41">
+        <f>F45*D41</f>
         <v>1.1923366979928068E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
-      <c r="A65" t="s">
+    <row r="42" spans="1:10">
+      <c r="A42" t="s">
         <v>49</v>
       </c>
-      <c r="B65" s="8"/>
-    </row>
-    <row r="66" spans="1:10">
-      <c r="A66" t="s">
+      <c r="B42" s="8"/>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" t="s">
         <v>50</v>
       </c>
-      <c r="B66" s="8"/>
-    </row>
-    <row r="67" spans="1:10">
-      <c r="A67" t="s">
+      <c r="B43" s="8"/>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" t="s">
         <v>51</v>
       </c>
-      <c r="B67" s="8">
-        <f t="shared" si="8"/>
+      <c r="B44" s="8">
+        <f t="shared" si="2"/>
         <v>35.001750087504377</v>
       </c>
-      <c r="C67">
+      <c r="C44">
         <v>2.8570000000000002E-2</v>
       </c>
-      <c r="D67">
-        <f>C67/C68</f>
+      <c r="D44">
+        <f>C44/C45</f>
         <v>0.49721545422902896</v>
       </c>
-      <c r="F67">
-        <f>F68*D67</f>
+      <c r="F44">
+        <f>F45*D44</f>
         <v>1.5330809838728394E-3</v>
       </c>
-      <c r="H67">
-        <f>H59</f>
+      <c r="H44">
+        <f>H36</f>
         <v>1.0833333333333333E-3</v>
       </c>
-      <c r="I67">
-        <f>1/H67</f>
+      <c r="I44">
+        <f>1/H44</f>
         <v>923.07692307692309</v>
       </c>
-      <c r="J67">
-        <f>H67/H68</f>
+      <c r="J44">
+        <f>H44/H45</f>
         <v>0.35135135135135132</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
-      <c r="A68" t="s">
+    <row r="45" spans="1:10">
+      <c r="A45" t="s">
         <v>52</v>
       </c>
-      <c r="B68" s="8">
-        <f t="shared" si="8"/>
+      <c r="B45" s="8">
+        <f t="shared" si="2"/>
         <v>17.40341106856944</v>
       </c>
-      <c r="C68">
+      <c r="C45">
         <v>5.7459999999999997E-2</v>
       </c>
-      <c r="D68">
-        <f>D63+D64+D67</f>
+      <c r="D45">
+        <f>D40+D41+D44</f>
         <v>1.0000000000000002</v>
       </c>
-      <c r="F68">
-        <f>H57</f>
+      <c r="F45">
+        <f>H34</f>
         <v>3.0833333333333333E-3</v>
       </c>
-      <c r="H68">
-        <f>H63+H67</f>
+      <c r="H45">
+        <f>H40+H44</f>
         <v>3.0833333333333333E-3</v>
       </c>
-      <c r="I68">
-        <f>1/H68</f>
+      <c r="I45">
+        <f>1/H45</f>
         <v>324.32432432432432</v>
       </c>
-      <c r="J68">
-        <f>J63+J67</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10">
-      <c r="B69" s="9"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="9"/>
-      <c r="G69" s="9"/>
-      <c r="H69" s="9"/>
-    </row>
-    <row r="72" spans="1:10">
-      <c r="B72" s="9"/>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9"/>
-      <c r="F72" s="9"/>
-      <c r="G72" s="9"/>
-      <c r="H72" s="9"/>
-    </row>
-    <row r="73" spans="1:10">
-      <c r="B73" s="9"/>
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
-      <c r="E73" s="9"/>
-      <c r="F73" s="9"/>
-      <c r="G73" s="9"/>
-      <c r="H73" s="9"/>
-    </row>
-    <row r="74" spans="1:10">
-      <c r="B74" s="9"/>
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
-      <c r="E74" s="9"/>
-      <c r="F74" s="9"/>
-      <c r="G74" s="9"/>
-      <c r="H74" s="9"/>
-    </row>
-    <row r="75" spans="1:10">
-      <c r="B75" s="9"/>
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
-      <c r="E75" s="9"/>
-      <c r="F75" s="9"/>
-      <c r="G75" s="9"/>
-      <c r="H75" s="9"/>
-    </row>
-    <row r="76" spans="1:10">
-      <c r="B76" s="9"/>
-      <c r="C76" s="9"/>
-      <c r="D76" s="9"/>
-      <c r="E76" s="9"/>
-      <c r="F76" s="9"/>
-      <c r="G76" s="9"/>
-      <c r="H76" s="9"/>
-    </row>
-    <row r="77" spans="1:10">
-      <c r="B77" s="9"/>
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9"/>
-      <c r="F77" s="9"/>
-      <c r="G77" s="9"/>
-      <c r="H77" s="9"/>
-    </row>
-    <row r="78" spans="1:10">
-      <c r="B78" s="9"/>
-      <c r="C78" s="9"/>
-      <c r="D78" s="9"/>
-      <c r="E78" s="9"/>
-      <c r="F78" s="9"/>
-      <c r="G78" s="9"/>
-      <c r="H78" s="9"/>
+      <c r="J45">
+        <f>J40+J44</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+    </row>
+    <row r="49" spans="2:8">
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+    </row>
+    <row r="50" spans="2:8">
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+    </row>
+    <row r="51" spans="2:8">
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+    </row>
+    <row r="52" spans="2:8">
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+    </row>
+    <row r="53" spans="2:8">
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+    </row>
+    <row r="54" spans="2:8">
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+    </row>
+    <row r="55" spans="2:8">
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4097,4 +3838,1191 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X79"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.6640625" customWidth="1"/>
+    <col min="10" max="10" width="18.5" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" customWidth="1"/>
+    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4"/>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="4"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="4"/>
+    </row>
+    <row r="2" spans="1:24">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="6">
+        <v>200</v>
+      </c>
+      <c r="D3" s="6">
+        <v>60</v>
+      </c>
+      <c r="E3" s="6">
+        <v>60</v>
+      </c>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+    </row>
+    <row r="4" spans="1:24">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6">
+        <v>35</v>
+      </c>
+      <c r="E4" s="6">
+        <v>50</v>
+      </c>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+    </row>
+    <row r="5" spans="1:24">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+    </row>
+    <row r="7" spans="1:24">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="H8" s="1"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="8">
+        <f>1/C3</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D10" s="8">
+        <f>1/D3</f>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="E10" s="8">
+        <f>1/E3</f>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8">
+        <f>1/D4</f>
+        <v>2.8571428571428571E-2</v>
+      </c>
+      <c r="E11" s="8">
+        <f>1/E4</f>
+        <v>0.02</v>
+      </c>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8">
+        <f>D11</f>
+        <v>2.8571428571428571E-2</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="H12" s="1"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="8">
+        <f>E11</f>
+        <v>0.02</v>
+      </c>
+      <c r="O13" s="8"/>
+      <c r="Q13" s="1"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="8">
+        <f>C10+C11</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D15" s="8">
+        <f>D10+D11</f>
+        <v>4.5238095238095237E-2</v>
+      </c>
+      <c r="E15" s="8">
+        <f>E10+E12</f>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+    </row>
+    <row r="16" spans="1:24">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8">
+        <f>E13+E14</f>
+        <v>0.02</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+    </row>
+    <row r="17" spans="1:23">
+      <c r="A17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="H17" s="1"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
+    </row>
+    <row r="18" spans="1:23">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="8">
+        <f>C10+C11+C14</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D18" s="8">
+        <f>D10+D11+D14</f>
+        <v>4.5238095238095237E-2</v>
+      </c>
+      <c r="E18" s="8">
+        <f>E10+E11+E14</f>
+        <v>3.6666666666666667E-2</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8">
+        <f>SUM(D18:F18)</f>
+        <v>8.1904761904761897E-2</v>
+      </c>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="Q18" s="1"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="8"/>
+    </row>
+    <row r="19" spans="1:23">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="8">
+        <f>C15+C16</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D19" s="8">
+        <f>D15+D16</f>
+        <v>4.5238095238095237E-2</v>
+      </c>
+      <c r="E19" s="8">
+        <f>E15+E16</f>
+        <v>3.6666666666666667E-2</v>
+      </c>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="E20" s="10"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="10"/>
+      <c r="H21" t="s">
+        <v>2</v>
+      </c>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8"/>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="9">
+        <f>D15/D18</f>
+        <v>1</v>
+      </c>
+      <c r="E22" s="8">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="1" t="e">
+        <f>(D11*0.5+D14)/D16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="8"/>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="10"/>
+      <c r="G23" t="s">
+        <v>2</v>
+      </c>
+      <c r="H23" t="e">
+        <f>(D11/2)/D16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="10"/>
+      <c r="H24" t="s">
+        <v>5</v>
+      </c>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="10"/>
+      <c r="G25" t="s">
+        <v>4</v>
+      </c>
+      <c r="H25">
+        <f>(E14+E13*0.5)/E16</f>
+        <v>0.5</v>
+      </c>
+      <c r="I25" s="8">
+        <f>H25/E32</f>
+        <v>0.91666666666666674</v>
+      </c>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="P25" s="1"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="10"/>
+      <c r="G26" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26">
+        <f>E13*0.5/E16</f>
+        <v>0.5</v>
+      </c>
+      <c r="I26" s="8">
+        <f>H26/E32</f>
+        <v>0.91666666666666674</v>
+      </c>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="C27" s="8"/>
+      <c r="D27" s="8">
+        <f>SUM(D22:D26)</f>
+        <v>1</v>
+      </c>
+      <c r="E27" s="8">
+        <f t="shared" ref="E27" si="0">SUM(E22:E26)</f>
+        <v>1</v>
+      </c>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="8"/>
+      <c r="V27" s="8"/>
+      <c r="W27" s="8"/>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="8"/>
+      <c r="W28" s="8"/>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="H29" s="1"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="8"/>
+      <c r="V29" s="8"/>
+      <c r="W29" s="8"/>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30">
+        <f>C18/$G$18</f>
+        <v>6.1046511627906981E-2</v>
+      </c>
+      <c r="D30">
+        <f>D18/$G$18</f>
+        <v>0.55232558139534893</v>
+      </c>
+      <c r="E30">
+        <f>E18/$G$18</f>
+        <v>0.44767441860465118</v>
+      </c>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="8"/>
+      <c r="W30" s="8"/>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31">
+        <f>D15/D18</f>
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <f>E15/E18</f>
+        <v>0.45454545454545453</v>
+      </c>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="S31" s="8"/>
+      <c r="T31" s="8"/>
+      <c r="U31" s="8"/>
+      <c r="V31" s="8"/>
+      <c r="W31" s="8"/>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32">
+        <f>D16/D18</f>
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <f>E16/E18</f>
+        <v>0.54545454545454541</v>
+      </c>
+      <c r="F32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="6"/>
+      <c r="S32" s="8"/>
+      <c r="T32" s="8"/>
+      <c r="U32" s="8"/>
+      <c r="V32" s="8"/>
+      <c r="W32" s="8"/>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="C33" s="8"/>
+      <c r="D33" s="8">
+        <f>D31+D32</f>
+        <v>1</v>
+      </c>
+      <c r="E33" s="8">
+        <f t="shared" ref="E33" si="1">E31+E32</f>
+        <v>1</v>
+      </c>
+      <c r="F33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="6"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="8"/>
+      <c r="U33" s="8"/>
+      <c r="V33" s="8"/>
+      <c r="W33" s="8"/>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S34" s="8"/>
+      <c r="T34" s="8"/>
+      <c r="U34" s="8"/>
+      <c r="V34" s="8"/>
+      <c r="W34" s="8"/>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <f>D10/D18</f>
+        <v>0.36842105263157893</v>
+      </c>
+      <c r="E35">
+        <f>E31</f>
+        <v>0.45454545454545453</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="S35" s="8"/>
+      <c r="T35" s="8"/>
+      <c r="U35" s="8"/>
+      <c r="V35" s="8"/>
+      <c r="W35" s="8"/>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37">
+        <f>D16/D18</f>
+        <v>0</v>
+      </c>
+      <c r="G37" s="9"/>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38" s="10"/>
+      <c r="G38" s="9"/>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39">
+        <f>E32</f>
+        <v>0.54545454545454541</v>
+      </c>
+      <c r="G39" s="9"/>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40" t="s">
+        <v>34</v>
+      </c>
+      <c r="D40">
+        <f>SUM(D35:D39)</f>
+        <v>0.36842105263157893</v>
+      </c>
+      <c r="E40">
+        <f>SUM(E35:E39)</f>
+        <v>1</v>
+      </c>
+      <c r="G40" s="9"/>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="G41" s="9"/>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="G42" s="9"/>
+    </row>
+    <row r="43" spans="1:23">
+      <c r="A43" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C43">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D43">
+        <v>0.41</v>
+      </c>
+      <c r="E43">
+        <v>0.45</v>
+      </c>
+      <c r="F43">
+        <f>SUM(C43:E43)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23">
+      <c r="A45" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C45">
+        <f>C18*C43</f>
+        <v>7.000000000000001E-4</v>
+      </c>
+      <c r="D45">
+        <f>D18*D43</f>
+        <v>1.8547619047619045E-2</v>
+      </c>
+      <c r="E45">
+        <f>E18*E43</f>
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="F45">
+        <f>SUM(C45:E45)</f>
+        <v>3.5747619047619042E-2</v>
+      </c>
+      <c r="O45" s="6"/>
+    </row>
+    <row r="46" spans="1:23">
+      <c r="A46" t="s">
+        <v>38</v>
+      </c>
+      <c r="C46">
+        <f>C15*C43</f>
+        <v>7.000000000000001E-4</v>
+      </c>
+      <c r="D46">
+        <f>D15*D43</f>
+        <v>1.8547619047619045E-2</v>
+      </c>
+      <c r="E46">
+        <f>E15*E43</f>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="F46">
+        <f>SUM(C46:E46)</f>
+        <v>2.6747619047619044E-2</v>
+      </c>
+      <c r="O46" s="6"/>
+    </row>
+    <row r="47" spans="1:23">
+      <c r="A47" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C47">
+        <f>C16*C43</f>
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <f>D16*D43</f>
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <f>E16*E43</f>
+        <v>9.0000000000000011E-3</v>
+      </c>
+      <c r="F47">
+        <f>SUM(C47:E47)</f>
+        <v>9.0000000000000011E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B50" t="s">
+        <v>41</v>
+      </c>
+      <c r="C50" t="s">
+        <v>42</v>
+      </c>
+      <c r="D50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s">
+        <v>44</v>
+      </c>
+      <c r="H50" t="s">
+        <v>45</v>
+      </c>
+      <c r="I50" t="s">
+        <v>41</v>
+      </c>
+      <c r="J50" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" t="s">
+        <v>47</v>
+      </c>
+      <c r="B51" s="8">
+        <f>1/C51</f>
+        <v>333.33333333333331</v>
+      </c>
+      <c r="C51">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D51">
+        <f>C51/C56</f>
+        <v>2.2656899025753342E-2</v>
+      </c>
+      <c r="F51">
+        <f>F56*D51</f>
+        <v>8.099301951730015E-4</v>
+      </c>
+      <c r="H51">
+        <f>F46</f>
+        <v>2.6747619047619044E-2</v>
+      </c>
+      <c r="I51">
+        <f>1/H51</f>
+        <v>37.386505251913839</v>
+      </c>
+      <c r="J51">
+        <f>H51/H56*100</f>
+        <v>74.823498068469434</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" t="s">
+        <v>48</v>
+      </c>
+      <c r="B52" s="8">
+        <f>1/C52</f>
+        <v>34.002040122407344</v>
+      </c>
+      <c r="C52">
+        <v>2.9409999999999999E-2</v>
+      </c>
+      <c r="D52">
+        <f>C52/C56</f>
+        <v>0.22211313344913525</v>
+      </c>
+      <c r="F52">
+        <f>F56*D52</f>
+        <v>7.9400156800126572E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" t="s">
+        <v>49</v>
+      </c>
+      <c r="B53" s="8"/>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" t="s">
+        <v>50</v>
+      </c>
+      <c r="B54" s="8"/>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" t="s">
+        <v>51</v>
+      </c>
+      <c r="B55" s="8">
+        <f>1/C55</f>
+        <v>10</v>
+      </c>
+      <c r="C55">
+        <v>0.1</v>
+      </c>
+      <c r="D55">
+        <f>C55/C56</f>
+        <v>0.7552299675251114</v>
+      </c>
+      <c r="F55">
+        <f>F56*D55</f>
+        <v>2.6997673172433383E-2</v>
+      </c>
+      <c r="H55">
+        <f>F47</f>
+        <v>9.0000000000000011E-3</v>
+      </c>
+      <c r="I55">
+        <f>1/H55</f>
+        <v>111.1111111111111</v>
+      </c>
+      <c r="J55">
+        <f>H55/H56*100</f>
+        <v>25.176501931530577</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" t="s">
+        <v>52</v>
+      </c>
+      <c r="B56" s="8">
+        <f>1/C56</f>
+        <v>7.5522996752511142</v>
+      </c>
+      <c r="C56">
+        <v>0.13241</v>
+      </c>
+      <c r="D56">
+        <f>D51+D52+D55</f>
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <f>F45</f>
+        <v>3.5747619047619042E-2</v>
+      </c>
+      <c r="H56">
+        <f>H51+H55</f>
+        <v>3.5747619047619042E-2</v>
+      </c>
+      <c r="I56">
+        <f>1/H56</f>
+        <v>27.973891035033972</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="J63" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="B64" s="9"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+    </row>
+    <row r="65" spans="2:8">
+      <c r="B65" s="9"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+    </row>
+    <row r="66" spans="2:8">
+      <c r="B66" s="9"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+    </row>
+    <row r="70" spans="2:8">
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
+    </row>
+    <row r="73" spans="2:8">
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
+    </row>
+    <row r="74" spans="2:8">
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9"/>
+    </row>
+    <row r="75" spans="2:8">
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="9"/>
+    </row>
+    <row r="76" spans="2:8">
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="9"/>
+    </row>
+    <row r="77" spans="2:8">
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="9"/>
+    </row>
+    <row r="78" spans="2:8">
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="9"/>
+    </row>
+    <row r="79" spans="2:8">
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>